--- a/swings/2021-11-22/BINANCE_SPOT_POLS_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_POLS_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>3.056</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -709,6 +719,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +774,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>3.116</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>3.062</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1027,6 +1047,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>3.108</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1081,6 +1104,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>3.093</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1135,6 +1161,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>3.105</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1216,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1291,6 +1322,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1377,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>3.048</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1397,6 +1432,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1451,6 +1487,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1503,6 +1542,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1555,6 +1595,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1607,6 +1648,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1661,6 +1703,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>3.047</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1715,6 +1760,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1767,6 +1815,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1821,6 +1870,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>3.039</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1875,6 +1927,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>3.055</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1927,6 +1982,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1981,6 +2037,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>3.043</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2035,6 +2094,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>3.056</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2149,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2202,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2191,6 +2255,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2245,6 +2310,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>3.014</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2299,6 +2367,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>3.021</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2353,6 +2424,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>3.012</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2407,6 +2481,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>3.039</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2459,6 +2536,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2513,6 +2591,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>3.017</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2565,6 +2646,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2617,6 +2699,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2671,6 +2754,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>3.048</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2725,6 +2811,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>3.028</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2779,6 +2868,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>3.065</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2831,6 +2923,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2885,6 +2978,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>3.049</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2937,6 +3033,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2991,6 +3088,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>3.087</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3045,6 +3145,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>3.066</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3097,6 +3200,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3253,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3203,6 +3308,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3257,6 +3365,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3309,6 +3420,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3363,6 +3475,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>3.114</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3417,6 +3532,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>3.082</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3469,6 +3587,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3523,6 +3642,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>3.121</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3577,6 +3699,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>3.093</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3629,6 +3754,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3683,6 +3809,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>3.108</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3737,6 +3866,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>3.081</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3791,6 +3923,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>3.106</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3845,6 +3980,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>3.088</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3899,6 +4037,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>3.104</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3951,6 +4092,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4003,6 +4145,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4057,6 +4200,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>3.083</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4109,6 +4255,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4163,6 +4310,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4217,6 +4367,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>3.089</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4269,6 +4422,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4323,6 +4477,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>3.101</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4377,6 +4534,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>3.082</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4429,6 +4589,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4481,6 +4642,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4535,6 +4697,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>3.124</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4589,6 +4754,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>3.104</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4641,6 +4809,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4695,6 +4864,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O80" t="n">
+        <v>3.115</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4747,6 +4919,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4801,6 +4974,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>3.056</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4853,6 +5029,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4907,6 +5084,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4961,6 +5141,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>3.157</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5013,6 +5196,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5067,6 +5251,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>3.248</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5121,6 +5308,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>3.181</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5175,6 +5365,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5227,6 +5420,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5281,6 +5475,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>3.18</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5333,6 +5530,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5387,6 +5585,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5441,6 +5642,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>3.224</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5493,6 +5697,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5547,6 +5752,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>3.268</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5599,6 +5807,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5651,6 +5860,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5703,6 +5913,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5755,6 +5966,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5809,6 +6021,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>3.165</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5861,6 +6076,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5913,6 +6129,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5967,6 +6184,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6019,6 +6239,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6071,6 +6292,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6123,6 +6345,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6175,6 +6398,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6229,6 +6453,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>3.158</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6283,6 +6510,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>3.173</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6335,6 +6565,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6387,6 +6618,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6439,6 +6671,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6491,6 +6724,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6543,6 +6777,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6597,6 +6832,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>3.124</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6651,6 +6889,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>3.154</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6703,6 +6944,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6757,6 +6999,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>3.099</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6811,6 +7056,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>3.119</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6865,6 +7113,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>3.073</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6919,6 +7170,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>3.113</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6971,6 +7225,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7025,6 +7280,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>3.089</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7079,6 +7337,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>3.108</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7131,6 +7392,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7183,6 +7445,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7235,6 +7498,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7289,6 +7553,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>3.071</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7341,6 +7608,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7395,6 +7663,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>3.102</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7449,6 +7720,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>3.085</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7501,6 +7775,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7555,6 +7830,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>3.113</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7609,6 +7887,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>3.095</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7663,6 +7944,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>3.113</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7717,6 +8001,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>3.101</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7771,6 +8058,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7825,6 +8115,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>3.111</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7879,6 +8172,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>3.141</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7931,6 +8227,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7983,6 +8280,7 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8037,6 +8335,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O143" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8091,6 +8392,9 @@
           <t>POLSUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8144,6 +8448,9 @@
         <is>
           <t>POLSUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>3.112</v>
       </c>
     </row>
   </sheetData>
